--- a/NformTester/NformTester/Keywordscripts/600.10.20.70_ChangeAlarmSeverity.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.70_ChangeAlarmSeverity.xlsx
@@ -1274,6 +1274,7 @@
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CI:$CI</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/NformTester/NformTester/Keywordscripts/600.10.20.70_ChangeAlarmSeverity.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.70_ChangeAlarmSeverity.xlsx
@@ -1274,12 +1274,11 @@
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CI:$CI</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8450" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8452" uniqueCount="915">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4020,62 +4019,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SingleAuto_0$</t>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SinAuto_0$</t>
+    <t>$NAME_SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
+    <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4241,7 +4247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4252,8 +4258,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4293,10 +4302,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4606,8 +4620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4618,16 +4632,16 @@
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4668,10 +4682,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4692,10 +4706,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4726,10 +4740,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4756,7 +4770,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4780,10 +4794,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4828,7 +4842,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4848,10 +4862,10 @@
         <v>847</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>848</v>
@@ -4866,7 +4880,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5093,13 +5107,13 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="9" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -5214,7 +5228,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="4">
@@ -5241,6 +5255,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>914</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -5983,13 +6003,13 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="I53" s="9">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -6341,7 +6361,7 @@
         <v>56</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -6821,13 +6841,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="9" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="I88" s="9">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -7179,7 +7199,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7659,13 +7679,13 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="9" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="I123" s="9">
         <v>1</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
@@ -8017,7 +8037,7 @@
         <v>56</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8497,13 +8517,13 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="9" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="I158" s="9">
         <v>1</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -8855,7 +8875,7 @@
         <v>56</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -9335,13 +9355,13 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="9" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="I193" s="9">
         <v>1</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K193" s="4"/>
       <c r="L193" s="4"/>
